--- a/stats.boot.wedge.vs.ctrl.ht.2019.xlsx
+++ b/stats.boot.wedge.vs.ctrl.ht.2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="18">
   <si>
     <t>location</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>BC</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>YP</t>
   </si>
 </sst>
 </file>
@@ -1692,228 +1698,807 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>316</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15.6666666666667</v>
+      </c>
+      <c r="F2" s="4">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="K2" s="4">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="P2" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>356</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4">
+        <v>32</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>372</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>38.818181818181799</v>
+      </c>
+      <c r="E4" s="4">
+        <v>19.386363636363601</v>
+      </c>
+      <c r="F4" s="4">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>38.818181818181799</v>
+      </c>
+      <c r="K4" s="4">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4">
+        <v>38.818181818181799</v>
+      </c>
+      <c r="P4" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>531</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14.2424242424242</v>
+      </c>
+      <c r="F5" s="4">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="K5" s="4">
+        <v>33</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="4">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="P5" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>541</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28.375</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.3125</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4">
+        <v>28.375</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4">
+        <v>28.375</v>
+      </c>
+      <c r="P6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>762</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>33.6666666666667</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12.3333333333333</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <v>33.6666666666667</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4">
+        <v>33.6666666666667</v>
+      </c>
+      <c r="P7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>833</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>23.772727272727298</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.0454545454545396</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>23.772727272727298</v>
+      </c>
+      <c r="K8" s="4">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4">
+        <v>23.772727272727298</v>
+      </c>
+      <c r="P8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
         <v>316</v>
       </c>
-      <c r="D2">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
         <v>42.9</v>
       </c>
-      <c r="E2">
+      <c r="E9" s="4">
         <v>13.1</v>
       </c>
-      <c r="F2">
+      <c r="F9" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="P9" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>318</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>57.15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11.26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>57.15</v>
+      </c>
+      <c r="K10" s="4">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4">
+        <v>57.15</v>
+      </c>
+      <c r="P10" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>356</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>89</v>
+      </c>
+      <c r="E11" s="4">
+        <v>35.25</v>
+      </c>
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>318</v>
-      </c>
-      <c r="D3">
-        <v>57.15</v>
-      </c>
-      <c r="E3">
-        <v>11.26</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4">
+        <v>89</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="4">
+        <v>89</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>372</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>531</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41.909090909090899</v>
+      </c>
+      <c r="E13" s="4">
+        <v>16.602272727272702</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4">
+        <v>41.909090909090899</v>
+      </c>
+      <c r="K13" s="4">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="4">
+        <v>41.909090909090899</v>
+      </c>
+      <c r="P13" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>541</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>54.682692307692299</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20.663461538461501</v>
+      </c>
+      <c r="F14" s="4">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4">
+        <v>54.682692307692299</v>
+      </c>
+      <c r="K14" s="4">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="4">
+        <v>54.682692307692299</v>
+      </c>
+      <c r="P14" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>621</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>356</v>
-      </c>
-      <c r="D4">
-        <v>89</v>
-      </c>
-      <c r="E4">
-        <v>35.25</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>372</v>
-      </c>
-      <c r="D5">
-        <v>73.5</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>531</v>
-      </c>
-      <c r="D6">
-        <v>41.909090909090899</v>
-      </c>
-      <c r="E6">
-        <v>16.602272727272702</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>541</v>
-      </c>
-      <c r="D7">
-        <v>54.682692307692299</v>
-      </c>
-      <c r="E7">
-        <v>20.663461538461501</v>
-      </c>
-      <c r="F7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>621</v>
-      </c>
-      <c r="D8">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4">
         <v>34.5</v>
       </c>
-      <c r="E8">
-        <v>17.5</v>
-      </c>
-      <c r="F8">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>762</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>80.9444444444444</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25.5555555555556</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4">
+        <v>80.9444444444444</v>
+      </c>
+      <c r="K16" s="4">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="4">
+        <v>80.9444444444444</v>
+      </c>
+      <c r="P16" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>833</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42.709677419354797</v>
+      </c>
+      <c r="E17" s="4">
+        <v>13.1290322580645</v>
+      </c>
+      <c r="F17" s="4">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4">
+        <v>42.709677419354797</v>
+      </c>
+      <c r="K17" s="4">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4">
+        <v>42.709677419354797</v>
+      </c>
+      <c r="P17" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>951</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>59.9375</v>
+      </c>
+      <c r="E18" s="4">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>762</v>
-      </c>
-      <c r="D9">
-        <v>80.9444444444444</v>
-      </c>
-      <c r="E9">
-        <v>25.5555555555556</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>833</v>
-      </c>
-      <c r="D10">
-        <v>42.709677419354797</v>
-      </c>
-      <c r="E10">
-        <v>13.1290322580645</v>
-      </c>
-      <c r="F10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>951</v>
-      </c>
-      <c r="D11">
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="4">
         <v>59.9375</v>
       </c>
-      <c r="E11">
-        <v>22</v>
-      </c>
-      <c r="F11">
+      <c r="K18" s="4">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="4">
+        <v>59.9375</v>
+      </c>
+      <c r="P18" s="4">
         <v>8</v>
       </c>
     </row>
